--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H2">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I2">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J2">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N2">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O2">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P2">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q2">
-        <v>1.108940957346131</v>
+        <v>3.076900029323999</v>
       </c>
       <c r="R2">
-        <v>1.108940957346131</v>
+        <v>12.307600117296</v>
       </c>
       <c r="S2">
-        <v>0.04516561507862327</v>
+        <v>0.05217492527764114</v>
       </c>
       <c r="T2">
-        <v>0.04516561507862327</v>
+        <v>0.03046977610014665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H3">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I3">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J3">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N3">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P3">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q3">
-        <v>1.528448761970648</v>
+        <v>4.280965689758999</v>
       </c>
       <c r="R3">
-        <v>1.528448761970648</v>
+        <v>25.685794138554</v>
       </c>
       <c r="S3">
-        <v>0.06225158155919508</v>
+        <v>0.07259223986825263</v>
       </c>
       <c r="T3">
-        <v>0.06225158155919508</v>
+        <v>0.06359000852297329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H4">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I4">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J4">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N4">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O4">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P4">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q4">
-        <v>1.780390381702521</v>
+        <v>4.821775190957999</v>
       </c>
       <c r="R4">
-        <v>1.780390381702521</v>
+        <v>28.93065114574799</v>
       </c>
       <c r="S4">
-        <v>0.07251281155860514</v>
+        <v>0.08176273453677632</v>
       </c>
       <c r="T4">
-        <v>0.07251281155860514</v>
+        <v>0.07162326159781524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H5">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I5">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J5">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N5">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O5">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P5">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q5">
-        <v>1.864583097224566</v>
+        <v>5.068535375649</v>
       </c>
       <c r="R5">
-        <v>1.864583097224566</v>
+        <v>30.411212253894</v>
       </c>
       <c r="S5">
-        <v>0.07594186317447565</v>
+        <v>0.0859470414934695</v>
       </c>
       <c r="T5">
-        <v>0.07594186317447565</v>
+        <v>0.07528866874769466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H6">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I6">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J6">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N6">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O6">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P6">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q6">
-        <v>0.8321467911176592</v>
+        <v>2.282460226125</v>
       </c>
       <c r="R6">
-        <v>0.8321467911176592</v>
+        <v>13.69476135675</v>
       </c>
       <c r="S6">
-        <v>0.03389217560011229</v>
+        <v>0.03870362722620644</v>
       </c>
       <c r="T6">
-        <v>0.03389217560011229</v>
+        <v>0.03390395432970805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H7">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I7">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J7">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N7">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O7">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P7">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q7">
-        <v>1.103907600586938</v>
+        <v>3.119167213164</v>
       </c>
       <c r="R7">
-        <v>1.103907600586938</v>
+        <v>12.476668852656</v>
       </c>
       <c r="S7">
-        <v>0.04496061349361269</v>
+        <v>0.05289164897276647</v>
       </c>
       <c r="T7">
-        <v>0.04496061349361269</v>
+        <v>0.03088833751446452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H8">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I8">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J8">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N8">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O8">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P8">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q8">
-        <v>1.431706054250672</v>
+        <v>1.296371682056</v>
       </c>
       <c r="R8">
-        <v>1.431706054250672</v>
+        <v>7.778230092336</v>
       </c>
       <c r="S8">
-        <v>0.05831138630389407</v>
+        <v>0.0219825457436724</v>
       </c>
       <c r="T8">
-        <v>0.05831138630389407</v>
+        <v>0.01925646975122641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H9">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I9">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J9">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N9">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P9">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q9">
-        <v>1.973314567947999</v>
+        <v>1.803673385279334</v>
       </c>
       <c r="R9">
-        <v>1.973314567947999</v>
+        <v>16.233060467514</v>
       </c>
       <c r="S9">
-        <v>0.08037034398862086</v>
+        <v>0.03058484942810919</v>
       </c>
       <c r="T9">
-        <v>0.08037034398862086</v>
+        <v>0.04018799060348103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H10">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I10">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J10">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N10">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O10">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P10">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q10">
-        <v>2.298585575298173</v>
+        <v>2.031529381918667</v>
       </c>
       <c r="R10">
-        <v>2.298585575298173</v>
+        <v>18.283764437268</v>
       </c>
       <c r="S10">
-        <v>0.09361817744349839</v>
+        <v>0.03444859848898835</v>
       </c>
       <c r="T10">
-        <v>0.09361817744349839</v>
+        <v>0.04526489350986294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H11">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I11">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J11">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N11">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O11">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P11">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q11">
-        <v>2.407283175236394</v>
+        <v>2.135495358272667</v>
       </c>
       <c r="R11">
-        <v>2.407283175236394</v>
+        <v>19.21945822445401</v>
       </c>
       <c r="S11">
-        <v>0.09804527874790761</v>
+        <v>0.03621154723480077</v>
       </c>
       <c r="T11">
-        <v>0.09804527874790761</v>
+        <v>0.04758137925217998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H12">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I12">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J12">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N12">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O12">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P12">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q12">
-        <v>1.074348991238996</v>
+        <v>0.9616551640833334</v>
       </c>
       <c r="R12">
-        <v>1.074348991238996</v>
+        <v>8.65489647675</v>
       </c>
       <c r="S12">
-        <v>0.04375673265286576</v>
+        <v>0.01630676520222499</v>
       </c>
       <c r="T12">
-        <v>0.04375673265286576</v>
+        <v>0.02142682206955378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H13">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I13">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J13">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N13">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O13">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P13">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q13">
-        <v>1.425207703461478</v>
+        <v>1.314179859016</v>
       </c>
       <c r="R13">
-        <v>1.425207703461478</v>
+        <v>7.885079154096002</v>
       </c>
       <c r="S13">
-        <v>0.0580467175598583</v>
+        <v>0.02228451860381214</v>
       </c>
       <c r="T13">
-        <v>0.0580467175598583</v>
+        <v>0.0195209946754448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H14">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I14">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J14">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N14">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O14">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P14">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q14">
-        <v>0.7723474830628796</v>
+        <v>0.2633283574826666</v>
       </c>
       <c r="R14">
-        <v>0.7723474830628796</v>
+        <v>1.579970144896</v>
       </c>
       <c r="S14">
-        <v>0.03145663337247755</v>
+        <v>0.004465253093764188</v>
       </c>
       <c r="T14">
-        <v>0.03145663337247755</v>
+        <v>0.003911512894560481</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H15">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I15">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J15">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N15">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O15">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P15">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q15">
-        <v>1.0645233603092</v>
+        <v>0.3663751349671112</v>
       </c>
       <c r="R15">
-        <v>1.0645233603092</v>
+        <v>3.297376214704</v>
       </c>
       <c r="S15">
-        <v>0.04335654843968473</v>
+        <v>0.006212615004815234</v>
       </c>
       <c r="T15">
-        <v>0.04335654843968473</v>
+        <v>0.008163274238881715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H16">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I16">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J16">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N16">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O16">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P16">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q16">
-        <v>1.239993906860544</v>
+        <v>0.4126588868942223</v>
       </c>
       <c r="R16">
-        <v>1.239993906860544</v>
+        <v>3.713929982048</v>
       </c>
       <c r="S16">
-        <v>0.05050321852222906</v>
+        <v>0.006997447555548593</v>
       </c>
       <c r="T16">
-        <v>0.05050321852222906</v>
+        <v>0.009194531340484133</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H17">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I17">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J17">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N17">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O17">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P17">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q17">
-        <v>1.298631863638061</v>
+        <v>0.4337772051715556</v>
       </c>
       <c r="R17">
-        <v>1.298631863638061</v>
+        <v>3.903994846544</v>
       </c>
       <c r="S17">
-        <v>0.05289146053571585</v>
+        <v>0.007355550408292687</v>
       </c>
       <c r="T17">
-        <v>0.05289146053571585</v>
+        <v>0.009665072616647254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H18">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I18">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J18">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N18">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O18">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P18">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q18">
-        <v>0.5795678078269134</v>
+        <v>0.1953383264444444</v>
       </c>
       <c r="R18">
-        <v>0.5795678078269134</v>
+        <v>1.758044938</v>
       </c>
       <c r="S18">
-        <v>0.02360498667387704</v>
+        <v>0.003312347651521688</v>
       </c>
       <c r="T18">
-        <v>0.02360498667387704</v>
+        <v>0.004352370496631395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08729066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.261872</v>
+      </c>
+      <c r="I19">
+        <v>0.03286980571102081</v>
+      </c>
+      <c r="J19">
+        <v>0.03925200669049219</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.058124</v>
+      </c>
+      <c r="N19">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P19">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q19">
+        <v>0.2669456827093334</v>
+      </c>
+      <c r="R19">
+        <v>1.601674096256</v>
+      </c>
+      <c r="S19">
+        <v>0.004526591997078419</v>
+      </c>
+      <c r="T19">
+        <v>0.003965245103287212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.728204</v>
+      </c>
+      <c r="I20">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J20">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.016684</v>
+      </c>
+      <c r="N20">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P20">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q20">
+        <v>0.7322537851786666</v>
+      </c>
+      <c r="R20">
+        <v>4.393522711071999</v>
+      </c>
+      <c r="S20">
+        <v>0.01241681112868675</v>
+      </c>
+      <c r="T20">
+        <v>0.01087699080417349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.728204</v>
+      </c>
+      <c r="I21">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J21">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.591557</v>
+      </c>
+      <c r="O21">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P21">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q21">
+        <v>1.018802463736445</v>
+      </c>
+      <c r="R21">
+        <v>9.169222173627999</v>
+      </c>
+      <c r="S21">
+        <v>0.01727581068982737</v>
+      </c>
+      <c r="T21">
+        <v>0.02270013194938985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.728204</v>
+      </c>
+      <c r="I22">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J22">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N22">
+        <v>14.182234</v>
+      </c>
+      <c r="O22">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P22">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q22">
+        <v>1.147506614192889</v>
+      </c>
+      <c r="R22">
+        <v>10.327559527736</v>
+      </c>
+      <c r="S22">
+        <v>0.01945824410299958</v>
+      </c>
+      <c r="T22">
+        <v>0.02556781366570656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.728204</v>
+      </c>
+      <c r="I23">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J23">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N23">
+        <v>14.908027</v>
+      </c>
+      <c r="O23">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P23">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q23">
+        <v>1.206231654834222</v>
+      </c>
+      <c r="R23">
+        <v>10.856084893508</v>
+      </c>
+      <c r="S23">
+        <v>0.02045404330940447</v>
+      </c>
+      <c r="T23">
+        <v>0.02687627749332879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.728204</v>
+      </c>
+      <c r="I24">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J24">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N24">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P24">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q24">
+        <v>0.5431896142777777</v>
+      </c>
+      <c r="R24">
+        <v>4.888706528499999</v>
+      </c>
+      <c r="S24">
+        <v>0.009210854192997718</v>
+      </c>
+      <c r="T24">
+        <v>0.01210291136558688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.728204</v>
+      </c>
+      <c r="I25">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J25">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.058124</v>
+      </c>
+      <c r="N25">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P25">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q25">
+        <v>0.7423127097653334</v>
+      </c>
+      <c r="R25">
+        <v>4.453876258592</v>
+      </c>
+      <c r="S25">
+        <v>0.01258738008890027</v>
+      </c>
+      <c r="T25">
+        <v>0.01102640734860604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.801499</v>
+      </c>
+      <c r="I26">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J26">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.016684</v>
+      </c>
+      <c r="N26">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P26">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q26">
+        <v>1.811517736438667</v>
+      </c>
+      <c r="R26">
+        <v>10.869106418632</v>
+      </c>
+      <c r="S26">
+        <v>0.03071786591603184</v>
+      </c>
+      <c r="T26">
+        <v>0.02690851472489541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.801499</v>
+      </c>
+      <c r="I27">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J27">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N27">
+        <v>12.591557</v>
+      </c>
+      <c r="O27">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P27">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q27">
+        <v>2.520408593771445</v>
+      </c>
+      <c r="R27">
+        <v>22.683677343943</v>
+      </c>
+      <c r="S27">
+        <v>0.0427385123975058</v>
+      </c>
+      <c r="T27">
+        <v>0.05615770444366396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.263351417600134</v>
-      </c>
-      <c r="H19">
-        <v>0.263351417600134</v>
-      </c>
-      <c r="I19">
-        <v>0.233126702838731</v>
-      </c>
-      <c r="J19">
-        <v>0.233126702838731</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.91945223902961</v>
-      </c>
-      <c r="N19">
-        <v>2.91945223902961</v>
-      </c>
-      <c r="O19">
-        <v>0.1343211863482178</v>
-      </c>
-      <c r="P19">
-        <v>0.1343211863482178</v>
-      </c>
-      <c r="Q19">
-        <v>0.768841885764333</v>
-      </c>
-      <c r="R19">
-        <v>0.768841885764333</v>
-      </c>
-      <c r="S19">
-        <v>0.03131385529474677</v>
-      </c>
-      <c r="T19">
-        <v>0.03131385529474677</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.801499</v>
+      </c>
+      <c r="I28">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J28">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N28">
+        <v>14.182234</v>
+      </c>
+      <c r="O28">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P28">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q28">
+        <v>2.838808929862889</v>
+      </c>
+      <c r="R28">
+        <v>25.549280368766</v>
+      </c>
+      <c r="S28">
+        <v>0.048137619806139</v>
+      </c>
+      <c r="T28">
+        <v>0.06325204304145088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.801499</v>
+      </c>
+      <c r="I29">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J29">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N29">
+        <v>14.908027</v>
+      </c>
+      <c r="O29">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P29">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q29">
+        <v>2.984088414719222</v>
+      </c>
+      <c r="R29">
+        <v>26.856795732473</v>
+      </c>
+      <c r="S29">
+        <v>0.05060112079561337</v>
+      </c>
+      <c r="T29">
+        <v>0.06648904294394746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.801499</v>
+      </c>
+      <c r="I30">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J30">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N30">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P30">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q30">
+        <v>1.343793149902778</v>
+      </c>
+      <c r="R30">
+        <v>12.094138349125</v>
+      </c>
+      <c r="S30">
+        <v>0.0227866705179197</v>
+      </c>
+      <c r="T30">
+        <v>0.0299413113937762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.801499</v>
+      </c>
+      <c r="I31">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J31">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.058124</v>
+      </c>
+      <c r="N31">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P31">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q31">
+        <v>1.836402442625333</v>
+      </c>
+      <c r="R31">
+        <v>11.018414655752</v>
+      </c>
+      <c r="S31">
+        <v>0.03113983532468066</v>
+      </c>
+      <c r="T31">
+        <v>0.02727815531376706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.275429</v>
+      </c>
+      <c r="H32">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J32">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.016684</v>
+      </c>
+      <c r="N32">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P32">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q32">
+        <v>0.830882257436</v>
+      </c>
+      <c r="R32">
+        <v>3.323529029744</v>
+      </c>
+      <c r="S32">
+        <v>0.01408925193639308</v>
+      </c>
+      <c r="T32">
+        <v>0.008228020445377121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.275429</v>
+      </c>
+      <c r="H33">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J33">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N33">
+        <v>12.591557</v>
+      </c>
+      <c r="O33">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P33">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q33">
+        <v>1.156026650984334</v>
+      </c>
+      <c r="R33">
+        <v>6.936159905906001</v>
+      </c>
+      <c r="S33">
+        <v>0.01960271817713908</v>
+      </c>
+      <c r="T33">
+        <v>0.01717176681998039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.275429</v>
+      </c>
+      <c r="H34">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J34">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N34">
+        <v>14.182234</v>
+      </c>
+      <c r="O34">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P34">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q34">
+        <v>1.302066176128667</v>
+      </c>
+      <c r="R34">
+        <v>7.812397056772</v>
+      </c>
+      <c r="S34">
+        <v>0.0220791071528517</v>
+      </c>
+      <c r="T34">
+        <v>0.01934105649002722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.275429</v>
+      </c>
+      <c r="H35">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J35">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N35">
+        <v>14.908027</v>
+      </c>
+      <c r="O35">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P35">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q35">
+        <v>1.368700989527667</v>
+      </c>
+      <c r="R35">
+        <v>8.212205937166001</v>
+      </c>
+      <c r="S35">
+        <v>0.0232090321997653</v>
+      </c>
+      <c r="T35">
+        <v>0.02033085847842104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.275429</v>
+      </c>
+      <c r="H36">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J36">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N36">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P36">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q36">
+        <v>0.6163527209583334</v>
+      </c>
+      <c r="R36">
+        <v>3.69811632575</v>
+      </c>
+      <c r="S36">
+        <v>0.01045147936370784</v>
+      </c>
+      <c r="T36">
+        <v>0.00915538166368828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.275429</v>
+      </c>
+      <c r="H37">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J37">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.058124</v>
+      </c>
+      <c r="N37">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P37">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q37">
+        <v>0.8422960351960002</v>
+      </c>
+      <c r="R37">
+        <v>3.369184140784001</v>
+      </c>
+      <c r="S37">
+        <v>0.01428279511169555</v>
+      </c>
+      <c r="T37">
+        <v>0.008341048249169774</v>
       </c>
     </row>
   </sheetData>
